--- a/0_evaluate/input_files/Mattiolo_2015_single_sheet.xlsx
+++ b/0_evaluate/input_files/Mattiolo_2015_single_sheet.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="str">
-        <v>903977</v>
+        <v>1.4375</v>
       </c>
       <c r="C3" t="str">
         <v>0.1875</v>
